--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -100,18 +100,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -127,13 +127,13 @@
     <t>share</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>community</t>
@@ -1145,25 +1145,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7467248908296943</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L18">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1171,25 +1171,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1197,25 +1197,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.7252747252747253</v>
+        <v>0.72</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1223,25 +1223,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.72</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1379,25 +1379,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6481481481481481</v>
+        <v>0.64</v>
       </c>
       <c r="L27">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1405,25 +1405,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.64</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1431,25 +1431,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.6299212598425197</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L29">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M29">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
